--- a/July Results/july_results.xlsx
+++ b/July Results/july_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebube\Downloads\Uni\Research_Project\FlashEAGLE\July Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8383E4F-F9CA-4137-A26A-F500D85D0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285CE4CB-B6B6-4D1C-9BC6-D01E23D5A90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E6F9455B-AAF1-4B1E-A5F6-7A962E311EF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tokens/s</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>len=3000</t>
+  </si>
+  <si>
+    <t>len=50</t>
+  </si>
+  <si>
+    <t>len=750</t>
   </si>
 </sst>
 </file>
@@ -195,19 +201,19 @@
                   <c:v>fast_tokeniser</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>len=50</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>len=500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>len=750</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>len=1000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>len=1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>len=2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>len=3000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -222,19 +228,19 @@
                   <c:v>65.326154340113106</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>65.398832684917494</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>65.305188803030902</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>65.350741735594497</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>65.419296226640398</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>65.355420674764702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.344065411686103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.315274523603193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,7 +1320,7 @@
   <dimension ref="D2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,56 +1349,72 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>65.305188803030902</v>
+        <v>65.398832684917494</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>65.419296226640398</v>
+        <v>65.305188803030902</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>65.355420674764702</v>
+        <v>65.350741735594497</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>65.344065411686103</v>
+        <v>65.419296226640398</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>65.355420674764702</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>65.344065411686103</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>65.315274523603193</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17">
         <f>E9/E11</f>
-        <v>1.0011513029451156</v>
+        <v>0.99825575281008561</v>
       </c>
       <c r="E17">
         <f>E9/D2</f>
-        <v>1.6210708224909647</v>
+        <v>1.6182432742641826</v>
       </c>
       <c r="F17">
         <f>E11/D2</f>
-        <v>1.6192066251346966</v>
+        <v>1.6210708224909647</v>
       </c>
     </row>
   </sheetData>
